--- a/tests/data/output/multireports/test_proximate_ave_std.xlsx
+++ b/tests/data/output/multireports/test_proximate_ave_std.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>cell</t>
+          <t>sda</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -488,16 +488,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.478921003005373</v>
+        <v>5.568700813871994</v>
       </c>
       <c r="D2" t="n">
-        <v>3.756958759957592e-05</v>
+        <v>0.01964554287720245</v>
       </c>
       <c r="E2" t="n">
-        <v>99.93668489356931</v>
+        <v>89.06732950693349</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06327753684308568</v>
+        <v>10.9130249501893</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6704685672339333</v>
+        <v>0.4205849730282111</v>
       </c>
       <c r="D3" t="n">
-        <v>4.172216118634237e-05</v>
+        <v>0.02778299317712186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02833680982964609</v>
+        <v>0.6078698812855557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02837176750622375</v>
+        <v>0.619706392382031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>sdb</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -532,16 +532,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.493742534615929</v>
+        <v>4.87077747262543</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5557897083220601</v>
       </c>
       <c r="E4" t="n">
-        <v>83.77604168846504</v>
+        <v>40.47953402825457</v>
       </c>
       <c r="F4" t="n">
-        <v>16.22395831153495</v>
+        <v>58.96467626342337</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3057924290136868</v>
+        <v>0.0932458638525169</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.404640492869387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3039715160506081</v>
+        <v>0.8004046368784722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3039715160506049</v>
+        <v>0.417639597475587</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>cell_ox5</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.568700813871994</v>
+        <v>3.478921003005373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01964554287720245</v>
+        <v>3.756958759957592e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>89.06732950693349</v>
+        <v>99.93668489356931</v>
       </c>
       <c r="F6" t="n">
-        <v>10.9130249501893</v>
+        <v>0.06327753684308568</v>
       </c>
     </row>
     <row r="7">
@@ -596,22 +596,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4205849730282111</v>
+        <v>0.6704685672339333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02778299317712186</v>
+        <v>4.172216118634237e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6078698812855557</v>
+        <v>0.02833680982964609</v>
       </c>
       <c r="F7" t="n">
-        <v>0.619706392382031</v>
+        <v>0.02837176750622375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>sdb</t>
+          <t>cell_ox10</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.87077747262543</v>
+        <v>4.697819756256592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5557897083220601</v>
+        <v>0.1573851684283168</v>
       </c>
       <c r="E8" t="n">
-        <v>40.47953402825457</v>
+        <v>-2.881974476348089</v>
       </c>
       <c r="F8" t="n">
-        <v>58.96467626342337</v>
+        <v>102.7245893079198</v>
       </c>
     </row>
     <row r="9">
@@ -640,22 +640,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0932458638525169</v>
+        <v>0.05053762367973036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.404640492869387</v>
+        <v>0.004490843296756503</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8004046368784722</v>
+        <v>0.07101940787890126</v>
       </c>
       <c r="F9" t="n">
-        <v>0.417639597475587</v>
+        <v>0.07551025117565757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dig</t>
+          <t>cell_ox50</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.240471333872009</v>
+        <v>3.969695257698937</v>
       </c>
       <c r="D10" t="n">
-        <v>34.50784139439306</v>
+        <v>0.2567443514659934</v>
       </c>
       <c r="E10" t="n">
-        <v>64.21863820801431</v>
+        <v>-2.290885228654972</v>
       </c>
       <c r="F10" t="n">
-        <v>1.273520397592633</v>
+        <v>102.034140877189</v>
       </c>
     </row>
     <row r="11">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.162406004914001</v>
+        <v>0.005758711116989446</v>
       </c>
       <c r="D11" t="n">
-        <v>1.050033687052396</v>
+        <v>0.04628595156430967</v>
       </c>
       <c r="E11" t="n">
-        <v>1.057856484687834</v>
+        <v>0.3221785540659502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1259690724326316</v>
+        <v>0.3684645056302571</v>
       </c>
     </row>
   </sheetData>
